--- a/example/game_06_abyssal_nightfall/waves.xlsx
+++ b/example/game_06_abyssal_nightfall/waves.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:J9"/>
+  <dimension ref="A4:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,7 +527,7 @@
         <v>arc</v>
       </c>
       <c r="J7" t="str">
-        <v>Choir acolytes spawn with dread chant buff.</v>
+        <v>Choir acolytes chant, boosting nearby allies.</v>
       </c>
     </row>
     <row r="8">
@@ -547,10 +547,10 @@
         <v>35</v>
       </c>
       <c r="F8" t="str">
-        <v>enemy:howler</v>
+        <v>enemy:abyssal-howler</v>
       </c>
       <c r="G8" t="str">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8" t="str">
         <v>7.5</v>
@@ -559,7 +559,7 @@
         <v>cone</v>
       </c>
       <c r="J8" t="str">
-        <v>Howlers arrive after fog surge; watch sanity bleed.</v>
+        <v>Howlers arrive after fog surge; manage sanity bleed.</v>
       </c>
     </row>
     <row r="9">
@@ -579,10 +579,10 @@
         <v>45</v>
       </c>
       <c r="F9" t="str">
-        <v>enemy:sentinel</v>
+        <v>enemy:null-sentinel</v>
       </c>
       <c r="G9" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" t="str">
         <v>13.5</v>
@@ -591,12 +591,76 @@
         <v>cross</v>
       </c>
       <c r="J9" t="str">
-        <v>Sentinels rotate beam sweeps; pair with shambler adds.</v>
+        <v>Sentinels sweep beams while shamblers close in.</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>60</v>
+      </c>
+      <c r="B10" t="str">
+        <v>08</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0005</v>
+      </c>
+      <c r="D10" t="str">
+        <v>240</v>
+      </c>
+      <c r="E10" t="str">
+        <v>40</v>
+      </c>
+      <c r="F10" t="str">
+        <v>enemy:myriad-fragment</v>
+      </c>
+      <c r="G10" t="str">
+        <v>16</v>
+      </c>
+      <c r="H10" t="str">
+        <v>8.0</v>
+      </c>
+      <c r="I10" t="str">
+        <v>swarm</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Fragments dash in packs forcing kite routes.</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>60</v>
+      </c>
+      <c r="B11" t="str">
+        <v>08</v>
+      </c>
+      <c r="C11" t="str">
+        <v>0006</v>
+      </c>
+      <c r="D11" t="str">
+        <v>270</v>
+      </c>
+      <c r="E11" t="str">
+        <v>50</v>
+      </c>
+      <c r="F11" t="str">
+        <v>enemy:harbor-dredger</v>
+      </c>
+      <c r="G11" t="str">
+        <v>6</v>
+      </c>
+      <c r="H11" t="str">
+        <v>10.5</v>
+      </c>
+      <c r="I11" t="str">
+        <v>line</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Dredgers charge straight for the beacon core.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A4:J9"/>
+    <ignoredError numberStoredAsText="1" sqref="A4:J11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example/game_06_abyssal_nightfall/waves.xlsx
+++ b/example/game_06_abyssal_nightfall/waves.xlsx
@@ -419,7 +419,7 @@
         <v>uint</v>
       </c>
       <c r="F4" t="str">
-        <v>string</v>
+        <v>tid</v>
       </c>
       <c r="G4" t="str">
         <v>uint</v>
@@ -483,7 +483,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="str">
-        <v>enemy:shambler</v>
+        <v>40060001</v>
       </c>
       <c r="G6" t="str">
         <v>18</v>
@@ -515,7 +515,7 @@
         <v>40</v>
       </c>
       <c r="F7" t="str">
-        <v>enemy:cultist</v>
+        <v>40060002</v>
       </c>
       <c r="G7" t="str">
         <v>12</v>
@@ -547,7 +547,7 @@
         <v>35</v>
       </c>
       <c r="F8" t="str">
-        <v>enemy:abyssal-howler</v>
+        <v>40060003</v>
       </c>
       <c r="G8" t="str">
         <v>8</v>
@@ -579,7 +579,7 @@
         <v>45</v>
       </c>
       <c r="F9" t="str">
-        <v>enemy:null-sentinel</v>
+        <v>40060004</v>
       </c>
       <c r="G9" t="str">
         <v>5</v>
@@ -611,7 +611,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="str">
-        <v>enemy:myriad-fragment</v>
+        <v>40060006</v>
       </c>
       <c r="G10" t="str">
         <v>16</v>
@@ -643,7 +643,7 @@
         <v>50</v>
       </c>
       <c r="F11" t="str">
-        <v>enemy:harbor-dredger</v>
+        <v>40060005</v>
       </c>
       <c r="G11" t="str">
         <v>6</v>

--- a/example/game_06_abyssal_nightfall/waves.xlsx
+++ b/example/game_06_abyssal_nightfall/waves.xlsx
@@ -477,16 +477,16 @@
         <v>0001</v>
       </c>
       <c r="D6" t="str">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F6" t="str">
         <v>40060001</v>
       </c>
       <c r="G6" t="str">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H6" t="str">
         <v>11.5</v>
@@ -509,16 +509,16 @@
         <v>0002</v>
       </c>
       <c r="D7" t="str">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="E7" t="str">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" t="str">
         <v>40060002</v>
       </c>
       <c r="G7" t="str">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" t="str">
         <v>9.0</v>
@@ -541,10 +541,10 @@
         <v>0003</v>
       </c>
       <c r="D8" t="str">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E8" t="str">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F8" t="str">
         <v>40060003</v>
@@ -573,10 +573,10 @@
         <v>0004</v>
       </c>
       <c r="D9" t="str">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="E9" t="str">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F9" t="str">
         <v>40060004</v>
@@ -605,16 +605,16 @@
         <v>0005</v>
       </c>
       <c r="D10" t="str">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="E10" t="str">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F10" t="str">
         <v>40060006</v>
       </c>
       <c r="G10" t="str">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="str">
         <v>8.0</v>
@@ -637,10 +637,10 @@
         <v>0006</v>
       </c>
       <c r="D11" t="str">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="E11" t="str">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F11" t="str">
         <v>40060005</v>

--- a/example/game_06_abyssal_nightfall/waves.xlsx
+++ b/example/game_06_abyssal_nightfall/waves.xlsx
@@ -486,7 +486,7 @@
         <v>40060001</v>
       </c>
       <c r="G6" t="str">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H6" t="str">
         <v>11.5</v>
@@ -518,7 +518,7 @@
         <v>40060002</v>
       </c>
       <c r="G7" t="str">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7" t="str">
         <v>9.0</v>
@@ -550,7 +550,7 @@
         <v>40060003</v>
       </c>
       <c r="G8" t="str">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8" t="str">
         <v>7.5</v>
@@ -582,7 +582,7 @@
         <v>40060004</v>
       </c>
       <c r="G9" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="str">
         <v>13.5</v>
@@ -614,7 +614,7 @@
         <v>40060006</v>
       </c>
       <c r="G10" t="str">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H10" t="str">
         <v>8.0</v>
@@ -646,7 +646,7 @@
         <v>40060005</v>
       </c>
       <c r="G11" t="str">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H11" t="str">
         <v>10.5</v>

--- a/example/game_06_abyssal_nightfall/waves.xlsx
+++ b/example/game_06_abyssal_nightfall/waves.xlsx
@@ -486,7 +486,7 @@
         <v>40060001</v>
       </c>
       <c r="G6" t="str">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H6" t="str">
         <v>11.5</v>
@@ -495,7 +495,7 @@
         <v>ring</v>
       </c>
       <c r="J6" t="str">
-        <v>Opening probe; stays outside melee range.</v>
+        <v>先遣侦查，保持距离发射腐质胆汁。</v>
       </c>
     </row>
     <row r="7">
@@ -512,13 +512,13 @@
         <v>35</v>
       </c>
       <c r="E7" t="str">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7" t="str">
         <v>40060002</v>
       </c>
       <c r="G7" t="str">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="str">
         <v>9.0</v>
@@ -527,7 +527,7 @@
         <v>arc</v>
       </c>
       <c r="J7" t="str">
-        <v>Choir acolytes chant, boosting nearby allies.</v>
+        <v>歌祭徒吟唱增幅附近同伴。</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         <v>0003</v>
       </c>
       <c r="D8" t="str">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E8" t="str">
         <v>30</v>
@@ -550,7 +550,7 @@
         <v>40060003</v>
       </c>
       <c r="G8" t="str">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8" t="str">
         <v>7.5</v>
@@ -559,7 +559,7 @@
         <v>cone</v>
       </c>
       <c r="J8" t="str">
-        <v>Howlers arrive after fog surge; manage sanity bleed.</v>
+        <v>雾潮袭来后出现呼嚎者，注意理智流失。</v>
       </c>
     </row>
     <row r="9">
@@ -573,16 +573,16 @@
         <v>0004</v>
       </c>
       <c r="D9" t="str">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E9" t="str">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F9" t="str">
         <v>40060004</v>
       </c>
       <c r="G9" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9" t="str">
         <v>13.5</v>
@@ -591,7 +591,7 @@
         <v>cross</v>
       </c>
       <c r="J9" t="str">
-        <v>Sentinels sweep beams while shamblers close in.</v>
+        <v>虚壳哨兵扫描横扫，伴随餍爬者挤压。</v>
       </c>
     </row>
     <row r="10">
@@ -605,7 +605,7 @@
         <v>0005</v>
       </c>
       <c r="D10" t="str">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E10" t="str">
         <v>35</v>
@@ -614,7 +614,7 @@
         <v>40060006</v>
       </c>
       <c r="G10" t="str">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H10" t="str">
         <v>8.0</v>
@@ -623,7 +623,7 @@
         <v>swarm</v>
       </c>
       <c r="J10" t="str">
-        <v>Fragments dash in packs forcing kite routes.</v>
+        <v>碎影成群突进，逼迫频繁拉扯走位。</v>
       </c>
     </row>
     <row r="11">
@@ -637,16 +637,16 @@
         <v>0006</v>
       </c>
       <c r="D11" t="str">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E11" t="str">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F11" t="str">
         <v>40060005</v>
       </c>
       <c r="G11" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H11" t="str">
         <v>10.5</v>
@@ -655,7 +655,7 @@
         <v>line</v>
       </c>
       <c r="J11" t="str">
-        <v>Dredgers charge straight for the beacon core.</v>
+        <v>掘锚者直冲核心，需迅速打断。</v>
       </c>
     </row>
   </sheetData>

--- a/example/game_06_abyssal_nightfall/waves.xlsx
+++ b/example/game_06_abyssal_nightfall/waves.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:J11"/>
+  <dimension ref="A4:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -480,22 +480,22 @@
         <v>3</v>
       </c>
       <c r="E6" t="str">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" t="str">
-        <v>40060001</v>
+        <v>40060007</v>
       </c>
       <c r="G6" t="str">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H6" t="str">
-        <v>11.5</v>
+        <v>12.0</v>
       </c>
       <c r="I6" t="str">
         <v>ring</v>
       </c>
       <c r="J6" t="str">
-        <v>先遣侦查，保持距离发射腐质胆汁。</v>
+        <v>虚潮行者只会缠斗，练习走位与护盾。</v>
       </c>
     </row>
     <row r="7">
@@ -509,25 +509,25 @@
         <v>0002</v>
       </c>
       <c r="D7" t="str">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E7" t="str">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F7" t="str">
-        <v>40060002</v>
+        <v>40060006</v>
       </c>
       <c r="G7" t="str">
         <v>10</v>
       </c>
       <c r="H7" t="str">
-        <v>9.0</v>
+        <v>8.5</v>
       </c>
       <c r="I7" t="str">
-        <v>arc</v>
+        <v>swarm</v>
       </c>
       <c r="J7" t="str">
-        <v>歌祭徒吟唱增幅附近同伴。</v>
+        <v>碎影涌入，速度快但血量低。</v>
       </c>
     </row>
     <row r="8">
@@ -541,25 +541,25 @@
         <v>0003</v>
       </c>
       <c r="D8" t="str">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E8" t="str">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F8" t="str">
-        <v>40060003</v>
+        <v>40060001</v>
       </c>
       <c r="G8" t="str">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H8" t="str">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="I8" t="str">
-        <v>cone</v>
+        <v>ring</v>
       </c>
       <c r="J8" t="str">
-        <v>雾潮袭来后出现呼嚎者，注意理智流失。</v>
+        <v>餍爬者投掷腐质胆汁，学会绕开溅射区。</v>
       </c>
     </row>
     <row r="9">
@@ -573,25 +573,25 @@
         <v>0004</v>
       </c>
       <c r="D9" t="str">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E9" t="str">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" t="str">
-        <v>40060004</v>
+        <v>40060002</v>
       </c>
       <c r="G9" t="str">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H9" t="str">
-        <v>13.5</v>
+        <v>9.0</v>
       </c>
       <c r="I9" t="str">
-        <v>cross</v>
+        <v>arc</v>
       </c>
       <c r="J9" t="str">
-        <v>虚壳哨兵扫描横扫，伴随餍爬者挤压。</v>
+        <v>歌祭徒三连音袭击，持续走位或击杀增幅者。</v>
       </c>
     </row>
     <row r="10">
@@ -605,25 +605,25 @@
         <v>0005</v>
       </c>
       <c r="D10" t="str">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="E10" t="str">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F10" t="str">
-        <v>40060006</v>
+        <v>40060003</v>
       </c>
       <c r="G10" t="str">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H10" t="str">
-        <v>8.0</v>
+        <v>8.5</v>
       </c>
       <c r="I10" t="str">
-        <v>swarm</v>
+        <v>cone</v>
       </c>
       <c r="J10" t="str">
-        <v>碎影成群突进，逼迫频繁拉扯走位。</v>
+        <v>呼嚎者扇形震荡波附理智流失，利用空挡反击。</v>
       </c>
     </row>
     <row r="11">
@@ -637,30 +637,62 @@
         <v>0006</v>
       </c>
       <c r="D11" t="str">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="E11" t="str">
+        <v>34</v>
+      </c>
+      <c r="F11" t="str">
+        <v>40060004</v>
+      </c>
+      <c r="G11" t="str">
+        <v>6</v>
+      </c>
+      <c r="H11" t="str">
+        <v>13.5</v>
+      </c>
+      <c r="I11" t="str">
+        <v>cross</v>
+      </c>
+      <c r="J11" t="str">
+        <v>虚壳哨兵有 0.6 秒警示后扫射光束，注意走位。</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>60</v>
+      </c>
+      <c r="B12" t="str">
+        <v>08</v>
+      </c>
+      <c r="C12" t="str">
+        <v>0007</v>
+      </c>
+      <c r="D12" t="str">
+        <v>206</v>
+      </c>
+      <c r="E12" t="str">
         <v>40</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F12" t="str">
         <v>40060005</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G12" t="str">
         <v>8</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H12" t="str">
         <v>10.5</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I12" t="str">
         <v>line</v>
       </c>
-      <c r="J11" t="str">
-        <v>掘锚者直冲核心，需迅速打断。</v>
+      <c r="J12" t="str">
+        <v>掘锚者冲撞灯塔并引发震波，及时打断或闪避。</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A4:J11"/>
+    <ignoredError numberStoredAsText="1" sqref="A4:J12"/>
   </ignoredErrors>
 </worksheet>
 </file>